--- a/data/chap3/3.3.xlsx
+++ b/data/chap3/3.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9610ADE7-269D-42F3-A4B0-B02BD0DEDC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0DB691-4294-4745-A3EA-DEFE884ECD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="828" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="99" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -238,6 +238,69 @@
   <si>
     <t>湖北-代理-伪狂犬</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南-批发-伪狂犬</t>
+  </si>
+  <si>
+    <t>安徽-代理-腹泻</t>
+  </si>
+  <si>
+    <t>江西-代理-蓝耳</t>
+  </si>
+  <si>
+    <t>重庆-批发-细小</t>
+  </si>
+  <si>
+    <t>江西-零售-蓝耳</t>
+  </si>
+  <si>
+    <t>湖北-零售-耳机</t>
+  </si>
+  <si>
+    <t>安徽-批发-伪狂犬</t>
+  </si>
+  <si>
+    <t>湖北-批发-腹泻</t>
+  </si>
+  <si>
+    <t>湖南-代理-耳机</t>
+  </si>
+  <si>
+    <t>江西-批发-细小</t>
+  </si>
+  <si>
+    <t>湖南-批发-蓝耳</t>
+  </si>
+  <si>
+    <t>安徽-零售-腹泻</t>
+  </si>
+  <si>
+    <t>重庆-批发-耳机</t>
+  </si>
+  <si>
+    <t>方天悦工程师</t>
+  </si>
+  <si>
+    <t>杨锦英工程师</t>
+  </si>
+  <si>
+    <t>白正阳工程师</t>
+  </si>
+  <si>
+    <t>徐茂源分析师</t>
+  </si>
+  <si>
+    <t>邓晓娟分析师</t>
+  </si>
+  <si>
+    <t>叶文宣分析师</t>
+  </si>
+  <si>
+    <t>刘元白测试员</t>
+  </si>
+  <si>
+    <t>谢阳云测试员</t>
   </si>
 </sst>
 </file>
@@ -365,7 +428,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,13 +453,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,72 +553,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF1E80B5"/>
       <color rgb="FF00A4DC"/>
@@ -593,7 +583,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -791,17 +781,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="25.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="24.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1">
+    <row r="1" spans="1:2" ht="25.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -809,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.05" customHeight="1">
+    <row r="2" spans="1:2" ht="25.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -817,59 +807,77 @@
         <v>13903182114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.05" customHeight="1">
+    <row r="3" spans="1:2" ht="25.15" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B3" s="8">
+        <v>13901252122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25.15" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B4" s="8">
+        <v>13904215118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25.15" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B5" s="8">
+        <v>13906102153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25.15" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B6" s="8">
+        <v>13907317122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25.15" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B7" s="8">
+        <v>13902142118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25.15" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B8" s="8">
+        <v>13910042158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25.15" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B9" s="8">
+        <v>13906102123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25.15" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" ht="25.05" customHeight="1">
+      <c r="B10" s="8">
+        <v>13906296523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="25.15" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>13905163042</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -882,115 +890,110 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="25.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="24.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1">
+    <row r="1" spans="1:2" ht="25.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.05" customHeight="1">
+    <row r="2" spans="1:2" ht="25.15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>20020318</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.05" customHeight="1">
+    <row r="3" spans="1:2" ht="25.15" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>19980125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.05" customHeight="1">
+    <row r="4" spans="1:2" ht="25.15" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>19901010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.05" customHeight="1">
+    <row r="5" spans="1:2" ht="25.15" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>20000421</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.05" customHeight="1">
+    <row r="6" spans="1:2" ht="25.15" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>20010731</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="25.05" customHeight="1">
+    <row r="7" spans="1:2" ht="25.15" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>19901031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.05" customHeight="1">
+    <row r="8" spans="1:2" ht="25.15" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>19801231</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="25.05" customHeight="1">
+    <row r="9" spans="1:2" ht="25.15" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>19971001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25.05" customHeight="1">
+    <row r="10" spans="1:2" ht="25.15" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>20021105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="25.05" customHeight="1">
+    <row r="11" spans="1:2" ht="25.15" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="25.05" customHeight="1">
+    </row>
+    <row r="12" spans="1:2" ht="25.15" customHeight="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="25.05" customHeight="1">
+    </row>
+    <row r="13" spans="1:2" ht="25.15" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="25.05" customHeight="1">
+    </row>
+    <row r="14" spans="1:2" ht="25.15" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="25.05" customHeight="1">
+    </row>
+    <row r="15" spans="1:2" ht="25.15" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,18 +1005,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6275BE7B-0F74-4402-A0B3-9072478DD7BA}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="25.15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="14.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="3" width="14.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1">
+    <row r="1" spans="1:4" ht="25.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1">
+    <row r="2" spans="1:4" ht="25.15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25.05" customHeight="1">
+    <row r="3" spans="1:4" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1051,9 +1054,11 @@
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1063,9 +1068,11 @@
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1075,9 +1082,11 @@
       <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -1087,9 +1096,11 @@
       <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1099,9 +1110,11 @@
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1111,9 +1124,11 @@
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1123,9 +1138,11 @@
       <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1135,9 +1152,11 @@
       <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1147,9 +1166,11 @@
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -1159,9 +1180,11 @@
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1171,9 +1194,11 @@
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1183,9 +1208,11 @@
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.05" customHeight="1">
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -1195,7 +1222,9 @@
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,17 +1236,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9D41A3-D8CC-45BC-B86E-095E825FE122}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="25.15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.81640625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="3" width="11.77734375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.05" customHeight="1">
+    <row r="1" spans="1:3" ht="25.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.05" customHeight="1">
+    <row r="2" spans="1:3" ht="25.15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -1239,77 +1268,93 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.05" customHeight="1">
+    <row r="3" spans="1:3" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="25.05" customHeight="1">
+      <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="25.05" customHeight="1">
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="25.05" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="25.05" customHeight="1">
+      <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25.15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="25.05" customHeight="1">
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="25.05" customHeight="1">
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.05" customHeight="1">
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
